--- a/paper/supplementary_tables.xlsx
+++ b/paper/supplementary_tables.xlsx
@@ -11,6 +11,7 @@
     <sheet name="Table S2" sheetId="2" r:id="rId2"/>
     <sheet name="Table S3" sheetId="3" r:id="rId3"/>
     <sheet name="Table S4" sheetId="4" r:id="rId4"/>
+    <sheet name="Table S5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -1365,6 +1366,523 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Variable</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>IBK</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>LZ/W</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Significance</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Effect size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>N participants</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>mRAP, mmHg</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>median: 10 [IQR: 6 - 13]
+range: 2 - 26</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>median: 6 [IQR: 3 - 9]
+range: 0 - 20</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>p &lt; 0.001</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>r = 0.43</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>SO2, %</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>≥95: 47% (n = 47)
+&lt;95: 53% (n = 53)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>≥95: 48% (n = 40)
+&lt;95: 52% (n = 43)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>ns (p = 0.99)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>V = 0.012</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>log NT-pro-BNP, pg/ml</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>median: 6.6 [IQR: 5.1 - 7.7]
+range: 3.4 - 11</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>median: 6.6 [IQR: 5.3 - 7.4]
+range: 3.2 - 10</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>ns (p = 0.95)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>r = 0.0079</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>CI</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>median: 2.4 [IQR: 1.9 - 2.8]
+range: 1.6 - 4.2</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>median: 2.6 [IQR: 2.2 - 3]
+range: 1.4 - 3.8</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>p = 0.033</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>r = 0.19</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>RAA, cm2</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>median: 22 [IQR: 17 - 24]
+range: 13 - 34</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>median: 18 [IQR: 17 - 23]
+range: 13 - 30</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>p = 0.012</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>r = 0.22</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>MCV, fl</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>median: 88 [IQR: 85 - 91]
+range: 58 - 100</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>median: 89 [IQR: 86 - 93]
+range: 76 - 110</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>ns (p = 0.3)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>r = 0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>log RDW, %</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>median: 2.7 [IQR: 2.6 - 2.8]
+range: 2.5 - 3.1</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>median: 2.7 [IQR: 2.7 - 2.8]
+range: 2.5 - 3.1</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>p = 0.012</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>r = 0.22</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>log FT, ng/ml</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>median: 4.1 [IQR: 3.5 - 4.7]
+range: 1.1 - 6.5</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>median: 4.4 [IQR: 3.4 - 4.9]
+range: 1.9 - 7.1</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>ns (p = 0.58)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>r = 0.056</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>log TF-Sat, %</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>median: 3 [IQR: 2.6 - 3.3]
+range: 0.69 - 4.3</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>median: 3 [IQR: 2.5 - 3.4]
+range: 0.69 - 4.5</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>ns (p = 0.5)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>r = 0.066</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>mRASP</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>median: 1 [IQR: 0 - 1]
+range: 0 - 2</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>median: 1 [IQR: 0 - 1]
+range: 0 - 2</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>ns (p = 0.3)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>r = 0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>COMPERA</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>median: 2 [IQR: 2 - 2]
+range: 1 - 3</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>median: 2 [IQR: 1 - 2]
+range: 1 - 3</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>p = 0.0091</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>r = 0.23</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>SPAHR</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>median: 2 [IQR: 2 - 2]
+range: 1 - 3</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>median: 2 [IQR: 1 - 2]
+range: 1 - 3</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>ns (p = 0.065)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>r = 0.17</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>FPHR 3p</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>median: 2 [IQR: 1 - 3]
+range: 0 - 3</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>median: 2 [IQR: 1 - 3]
+range: 0 - 3</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>ns (p = 0.3)</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>r = 0.099</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>FPHR 4p</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>median: 3 [IQR: 2 - 4]
+range: 0 - 4</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>median: 2 [IQR: 1 - 3]
+range: 0 - 4</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>p &lt; 0.001</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>r = 0.33</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>3-year mortality</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>13% (n = 13)</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>11% (n = 9)</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>ns (p = 0.94)</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>V = 0.033</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Overall mortality</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>33% (n = 33)</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>24% (n = 20)</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>ns (p = 0.35)</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>V = 0.098</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H65"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3682,9 +4200,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3742,16 +4260,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mean = 56 (SD: 16)
-Median = 58 [IQR: 48 - 68]
-Range: 4 - 80</t>
+          <t>median: 58 [IQR: 48 - 68]
+range: 4 - 80</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Mean = 66 (SD: 13)
-Median = 69 [IQR: 65 - 74]
-Range: 26 - 84</t>
+          <t>median: 69 [IQR: 65 - 74]
+range: 26 - 84</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -3773,16 +4289,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Mean = 370 (SD: 110)
-Median = 370 [IQR: 310 - 450]
-Range: 120 - 580</t>
+          <t>median: 370 [IQR: 310 - 450]
+range: 120 - 580</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Mean = 250 (SD: 120)
-Median = 240 [IQR: 160 - 330]
-Range: 50 - 610</t>
+          <t>median: 240 [IQR: 160 - 330]
+range: 50 - 610</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -3804,16 +4318,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Mean = 35 (SD: 13)
-Median = 30 [IQR: 27 - 37]
-Range: 26 - 87</t>
+          <t>median: 30 [IQR: 27 - 37]
+range: 26 - 87</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Mean = 49 (SD: 16)
-Median = 47 [IQR: 40 - 55]
-Range: 26 - 120</t>
+          <t>median: 47 [IQR: 40 - 55]
+range: 26 - 120</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -3835,14 +4347,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>female: 78% (36)
-male: 22% (10)</t>
+          <t>female: 78% (n = 36)
+male: 22% (n = 10)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>female: 52% (28)
-male: 48% (26)</t>
+          <t>female: 52% (n = 28)
+male: 48% (n = 26)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -3864,16 +4376,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Mean = 8.9 (SD: 6.5)
-Median = 6.8 [IQR: 5.9 - 9.6]
-Range: 3.3 - 38</t>
+          <t>median: 6.8 [IQR: 5.9 - 9.6]
+range: 3.3 - 38</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Mean = 17 (SD: 9)
-Median = 14 [IQR: 11 - 22]
-Range: 4.3 - 43</t>
+          <t>median: 14 [IQR: 11 - 22]
+range: 4.3 - 43</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -3890,288 +4400,274 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>PCWP, mmHg</t>
+          <t>Anemia</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Mean = 13 (SD: 4.3)
-Median = 12 [IQR: 9 - 14]
-Range: 6 - 23</t>
+          <t>15% (n = 7)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Mean = 15 (SD: 6.3)
-Median = 14 [IQR: 11 - 19]
-Range: 4 - 32</t>
+          <t>22% (n = 12)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>p = 0.042</t>
+          <t>ns (p = 0.53)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>r = 0.22</t>
+          <t>V = 0.089</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Anemia</t>
+          <t>log RDW, %</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>15% (7)</t>
+          <t>median: 2.6 [IQR: 2.6 - 2.7]
+range: 2.5 - 2.9</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>22% (12)</t>
+          <t>median: 2.7 [IQR: 2.6 - 2.8]
+range: 2.6 - 3.1</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>ns (p = 0.53)</t>
+          <t>p &lt; 0.001</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>V = 0.089</t>
+          <t>r = 0.38</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>log RDW, %</t>
+          <t>Renal insufficiency</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Mean = 2.6 (SD: 0.086)
-Median = 2.6 [IQR: 2.6 - 2.7]
-Range: 2.5 - 2.9</t>
+          <t>17% (n = 8)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Mean = 2.7 (SD: 0.13)
-Median = 2.7 [IQR: 2.6 - 2.8]
-Range: 2.6 - 3.1</t>
+          <t>50% (n = 27)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>p &lt; 0.001</t>
+          <t>p = 0.0026</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>r = 0.38</t>
+          <t>V = 0.34</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Renal insufficiency</t>
+          <t>log FT, ng/ml</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>17% (8)</t>
+          <t>median: 4 [IQR: 3.3 - 4.7]
+range: 1.1 - 6.5</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>50% (27)</t>
+          <t>median: 4.2 [IQR: 3.8 - 4.9]
+range: 1.8 - 6.5</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>p = 0.0026</t>
+          <t>ns (p = 0.23)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>V = 0.34</t>
+          <t>r = 0.12</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>log FT, ng/ml</t>
+          <t>log TF-Sat, %</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Mean = 4 (SD: 1)
-Median = 4 [IQR: 3.3 - 4.7]
-Range: 1.1 - 6.5</t>
+          <t>median: 3 [IQR: 2.7 - 3.4]
+range: 1.8 - 4.3</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Mean = 4.3 (SD: 0.96)
-Median = 4.2 [IQR: 3.8 - 4.9]
-Range: 1.8 - 6.5</t>
+          <t>median: 2.8 [IQR: 2.4 - 3.2]
+range: 0.69 - 4</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>ns (p = 0.23)</t>
+          <t>ns (p = 0.16)</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>r = 0.12</t>
+          <t>r = 0.15</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>log TF-Sat, %</t>
+          <t>MCV, fl</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Mean = 3 (SD: 0.53)
-Median = 3 [IQR: 2.7 - 3.4]
-Range: 1.8 - 4.3</t>
+          <t>median: 88 [IQR: 85 - 90]
+range: 76 - 96</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Mean = 2.8 (SD: 0.65)
-Median = 2.8 [IQR: 2.4 - 3.2]
-Range: 0.69 - 4</t>
+          <t>median: 88 [IQR: 86 - 92]
+range: 58 - 100</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>ns (p = 0.16)</t>
+          <t>ns (p = 0.33)</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>r = 0.15</t>
+          <t>r = 0.1</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>MCV, fl</t>
+          <t>log NT-pro-BNP, pg/ml</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Mean = 87 (SD: 5.1)
-Median = 88 [IQR: 85 - 90]
-Range: 76 - 96</t>
+          <t>median: 5.1 [IQR: 4.4 - 5.8]
+range: 3.4 - 7.5</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Mean = 88 (SD: 6.8)
-Median = 88 [IQR: 86 - 92]
-Range: 58 - 100</t>
+          <t>median: 7.6 [IQR: 6.9 - 8.1]
+range: 4.9 - 11</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>ns (p = 0.33)</t>
+          <t>p &lt; 0.001</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>r = 0.1</t>
+          <t>r = 0.78</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>log NT-pro-BNP, pg/ml</t>
+          <t>Percardial effusion</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Mean = 5.1 (SD: 1)
-Median = 5.1 [IQR: 4.4 - 5.8]
-Range: 3.4 - 7.5</t>
+          <t>6.5% (n = 3)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Mean = 7.6 (SD: 1.1)
-Median = 7.6 [IQR: 6.9 - 8.1]
-Range: 4.9 - 11</t>
+          <t>24% (n = 13)</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>p &lt; 0.001</t>
+          <t>p = 0.047</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>r = 0.78</t>
+          <t>V = 0.24</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Percardial effusion</t>
+          <t>RAA, cm²</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>6.5% (3)</t>
+          <t>median: 17 [IQR: 16 - 21]
+range: 13 - 27</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>24% (13)</t>
+          <t>median: 24 [IQR: 23 - 27]
+range: 15 - 34</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>p = 0.047</t>
+          <t>p &lt; 0.001</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>V = 0.24</t>
+          <t>r = 0.67</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>RAA, cm²</t>
+          <t>CI</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Mean = 18 (SD: 3.5)
-Median = 17 [IQR: 16 - 21]
-Range: 13 - 27</t>
+          <t>median: 2.7 [IQR: 2.4 - 3]
+range: 1.8 - 4.2</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Mean = 25 (SD: 3.9)
-Median = 24 [IQR: 23 - 27]
-Range: 15 - 34</t>
+          <t>median: 2 [IQR: 1.9 - 2.3]
+range: 1.6 - 3.5</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -4181,122 +4677,116 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>r = 0.67</t>
+          <t>r = 0.6</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CI</t>
+          <t>mRAP, mmHg</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Mean = 2.7 (SD: 0.47)
-Median = 2.7 [IQR: 2.4 - 3]
-Range: 1.8 - 4.2</t>
+          <t>median: 8 [IQR: 6 - 12]
+range: 2 - 18</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Mean = 2.1 (SD: 0.41)
-Median = 2 [IQR: 1.9 - 2.3]
-Range: 1.6 - 3.5</t>
+          <t>median: 11 [IQR: 8 - 14]
+range: 2 - 26</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>p &lt; 0.001</t>
+          <t>p = 0.024</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>r = 0.6</t>
+          <t>r = 0.24</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>mRAP, mmHg</t>
+          <t>WHO class</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Mean = 9 (SD: 3.5)
-Median = 8 [IQR: 6 - 12]
-Range: 2 - 18</t>
+          <t>I/II: 48% (n = 22)
+III/IV: 52% (n = 24)</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Mean = 11 (SD: 5.3)
-Median = 11 [IQR: 8 - 14]
-Range: 2 - 26</t>
+          <t>I/II: 31% (n = 17)
+III/IV: 69% (n = 37)</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>p = 0.024</t>
+          <t>ns (p = 0.16)</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>r = 0.24</t>
+          <t>V = 0.17</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>WHO class</t>
+          <t>SO2, %</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>I/II: 48% (22)
-III/IV: 52% (24)</t>
+          <t>≥95: 57% (n = 26)
+&lt;95: 43% (n = 20)</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>I/II: 31% (17)
-III/IV: 69% (37)</t>
+          <t>≥95: 39% (n = 21)
+&lt;95: 61% (n = 33)</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>ns (p = 0.16)</t>
+          <t>ns (p = 0.15)</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>V = 0.17</t>
+          <t>V = 0.18</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>SO2, %</t>
+          <t>3-year mortality</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>≥95: 57% (26)
-&lt;95: 43% (20)</t>
+          <t>6.5% (n = 3)</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>≥95: 39% (21)
-&lt;95: 61% (33)</t>
+          <t>19% (n = 10)</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>ns (p = 0.15)</t>
+          <t>ns (p = 0.16)</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -4308,75 +4798,75 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>3-year mortality</t>
+          <t>5-year mortality</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>6.5% (3)</t>
+          <t>6.5% (n = 3)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>19% (10)</t>
+          <t>33% (n = 18)</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>ns (p = 0.16)</t>
+          <t>p = 0.0042</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>V = 0.18</t>
+          <t>V = 0.33</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>5-year mortality</t>
+          <t>mRASP</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>6.5% (3)</t>
+          <t>median: 0 [IQR: 0 - 1]
+range: 0 - 1</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>33% (18)</t>
+          <t>median: 1 [IQR: 1 - 2]
+range: 0 - 2</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>p = 0.0042</t>
+          <t>p &lt; 0.001</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>V = 0.33</t>
+          <t>r = 0.68</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>mRASP</t>
+          <t>COMPERA</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Mean = 0.35 (SD: 0.48)
-Median = 0 [IQR: 0 - 1]
-Range: 0 - 1</t>
+          <t>median: 2 [IQR: 1 - 2]
+range: 1 - 2</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Mean = 1.3 (SD: 0.52)
-Median = 1 [IQR: 1 - 2]
-Range: 0 - 2</t>
+          <t>median: 2 [IQR: 2 - 2.8]
+range: 1 - 3</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -4386,28 +4876,26 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>r = 0.68</t>
+          <t>r = 0.58</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>COMPERA</t>
+          <t>SPAHR</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Mean = 1.5 (SD: 0.5)
-Median = 2 [IQR: 1 - 2]
-Range: 1 - 2</t>
+          <t>median: 1.5 [IQR: 1 - 2]
+range: 1 - 2</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Mean = 2.2 (SD: 0.47)
-Median = 2 [IQR: 2 - 2.8]
-Range: 1 - 3</t>
+          <t>median: 2 [IQR: 2 - 2]
+range: 1 - 3</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -4417,28 +4905,26 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>r = 0.58</t>
+          <t>r = 0.59</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>SPAHR</t>
+          <t>FPHR 3p</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Mean = 1.5 (SD: 0.51)
-Median = 1.5 [IQR: 1 - 2]
-Range: 1 - 2</t>
+          <t>median: 2 [IQR: 1 - 2]
+range: 0 - 3</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Mean = 2.2 (SD: 0.44)
-Median = 2 [IQR: 2 - 2]
-Range: 1 - 3</t>
+          <t>median: 3 [IQR: 2 - 3]
+range: 1 - 3</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -4448,28 +4934,26 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>r = 0.59</t>
+          <t>r = 0.55</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>FPHR 3p</t>
+          <t>FPHR 4p</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Mean = 1.5 (SD: 0.98)
-Median = 2 [IQR: 1 - 2]
-Range: 0 - 3</t>
+          <t>median: 2 [IQR: 2 - 3]
+range: 0 - 4</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Mean = 2.6 (SD: 0.63)
-Median = 3 [IQR: 2 - 3]
-Range: 1 - 3</t>
+          <t>median: 3 [IQR: 3 - 4]
+range: 1 - 4</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -4478,37 +4962,6 @@
         </is>
       </c>
       <c r="E27" t="inlineStr">
-        <is>
-          <t>r = 0.55</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>FPHR 4p</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Mean = 2.2 (SD: 1)
-Median = 2 [IQR: 2 - 3]
-Range: 0 - 4</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Mean = 3.2 (SD: 0.87)
-Median = 3 [IQR: 3 - 4]
-Range: 1 - 4</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>p &lt; 0.001</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
         <is>
           <t>r = 0.49</t>
         </is>
@@ -4519,9 +4972,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4579,16 +5032,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mean = 58 (SD: 16)
-Median = 63 [IQR: 46 - 71]
-Range: 23 - 81</t>
+          <t>median: 63 [IQR: 46 - 71]
+range: 23 - 81</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Mean = 68 (SD: 12)
-Median = 71 [IQR: 64 - 74]
-Range: 26 - 82</t>
+          <t>median: 71 [IQR: 64 - 74]
+range: 26 - 82</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -4610,16 +5061,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Mean = 430 (SD: 110)
-Median = 430 [IQR: 350 - 510]
-Range: 190 - 620</t>
+          <t>median: 430 [IQR: 350 - 510]
+range: 190 - 620</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Mean = 280 (SD: 140)
-Median = 320 [IQR: 180 - 380]
-Range: 50 - 580</t>
+          <t>median: 320 [IQR: 180 - 380]
+range: 50 - 580</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -4641,16 +5090,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Mean = 34 (SD: 9.1)
-Median = 34 [IQR: 28 - 39]
-Range: 18 - 57</t>
+          <t>median: 34 [IQR: 28 - 39]
+range: 18 - 57</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Mean = 44 (SD: 9.8)
-Median = 44 [IQR: 35 - 50]
-Range: 28 - 67</t>
+          <t>median: 44 [IQR: 35 - 50]
+range: 28 - 67</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -4672,14 +5119,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>female: 77% (27)
-male: 23% (8)</t>
+          <t>female: 77% (n = 27)
+male: 23% (n = 8)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>female: 58% (28)
-male: 42% (20)</t>
+          <t>female: 58% (n = 28)
+male: 42% (n = 20)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -4701,16 +5148,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Mean = 4.4 (SD: 2.1)
-Median = 3.7 [IQR: 3 - 5]
-Range: 1.4 - 10</t>
+          <t>median: 3.7 [IQR: 3 - 5]
+range: 1.4 - 10</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Mean = 7.6 (SD: 4.2)
-Median = 6.4 [IQR: 4.9 - 9]
-Range: 2.3 - 20</t>
+          <t>median: 6.4 [IQR: 4.9 - 9]
+range: 2.3 - 20</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -4727,350 +5172,332 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>PCWP, mmHg</t>
+          <t>Anemia</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Mean = 10 (SD: 5.6)
-Median = 10 [IQR: 8 - 12]
-Range: 1 - 27</t>
+          <t>5.7% (n = 2)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Mean = 11 (SD: 4.9)
-Median = 12 [IQR: 8.5 - 15]
-Range: 1 - 25</t>
+          <t>25% (n = 12)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>ns (p = 0.12)</t>
+          <t>ns (p = 0.07)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>r = 0.19</t>
+          <t>V = 0.25</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Anemia</t>
+          <t>log RDW, %</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>5.7% (2)</t>
+          <t>median: 2.7 [IQR: 2.6 - 2.8]
+range: 2.5 - 2.8</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>25% (12)</t>
+          <t>median: 2.8 [IQR: 2.7 - 2.8]
+range: 2.5 - 3.1</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>ns (p = 0.07)</t>
+          <t>p = 0.011</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>V = 0.25</t>
+          <t>r = 0.3</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>log RDW, %</t>
+          <t>Renal insufficiency</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Mean = 2.7 (SD: 0.075)
-Median = 2.7 [IQR: 2.6 - 2.8]
-Range: 2.5 - 2.8</t>
+          <t>11% (n = 4)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Mean = 2.8 (SD: 0.13)
-Median = 2.8 [IQR: 2.7 - 2.8]
-Range: 2.5 - 3.1</t>
+          <t>23% (n = 11)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>p = 0.011</t>
+          <t>ns (p = 0.33)</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>r = 0.3</t>
+          <t>V = 0.15</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Renal insufficiency</t>
+          <t>log FT, ng/ml</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>11% (4)</t>
+          <t>median: 4.2 [IQR: 3 - 4.8]
+range: 1.9 - 5.7</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>23% (11)</t>
+          <t>median: 4.4 [IQR: 3.6 - 5]
+range: 2.5 - 7.1</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>ns (p = 0.33)</t>
+          <t>ns (p = 0.12)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>V = 0.15</t>
+          <t>r = 0.19</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>log FT, ng/ml</t>
+          <t>log TF-Sat, %</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Mean = 4 (SD: 1)
-Median = 4.2 [IQR: 3 - 4.8]
-Range: 1.9 - 5.7</t>
+          <t>median: 3.1 [IQR: 2.8 - 3.4]
+range: 1.6 - 4.5</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Mean = 4.4 (SD: 0.95)
-Median = 4.4 [IQR: 3.6 - 5]
-Range: 2.5 - 7.1</t>
+          <t>median: 2.8 [IQR: 2.4 - 3.4]
+range: 0.69 - 4.1</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>ns (p = 0.12)</t>
+          <t>ns (p = 0.16)</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>r = 0.19</t>
+          <t>r = 0.17</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>log TF-Sat, %</t>
+          <t>MCV, fl</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Mean = 3.1 (SD: 0.55)
-Median = 3.1 [IQR: 2.8 - 3.4]
-Range: 1.6 - 4.5</t>
+          <t>median: 89 [IQR: 84 - 94]
+range: 78 - 110</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Mean = 2.9 (SD: 0.62)
-Median = 2.8 [IQR: 2.4 - 3.4]
-Range: 0.69 - 4.1</t>
+          <t>median: 90 [IQR: 87 - 93]
+range: 76 - 100</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>ns (p = 0.16)</t>
+          <t>ns (p = 0.68)</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>r = 0.17</t>
+          <t>r = 0.045</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>MCV, fl</t>
+          <t>log NT-pro-BNP, pg/ml</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Mean = 90 (SD: 7.1)
-Median = 89 [IQR: 84 - 94]
-Range: 78 - 110</t>
+          <t>median: 5.3 [IQR: 4.9 - 6]
+range: 3.2 - 7</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Mean = 89 (SD: 5.3)
-Median = 90 [IQR: 87 - 93]
-Range: 76 - 100</t>
+          <t>median: 7.3 [IQR: 6.7 - 7.9]
+range: 4.8 - 10</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>ns (p = 0.68)</t>
+          <t>p &lt; 0.001</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>r = 0.045</t>
+          <t>r = 0.68</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>log NT-pro-BNP, pg/ml</t>
+          <t>Percardial effusion</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Mean = 5.4 (SD: 0.95)
-Median = 5.3 [IQR: 4.9 - 6]
-Range: 3.2 - 7</t>
+          <t>0% (n = 0)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Mean = 7.3 (SD: 1.2)
-Median = 7.3 [IQR: 6.7 - 7.9]
-Range: 4.8 - 10</t>
+          <t>6.2% (n = 3)</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>p &lt; 0.001</t>
+          <t>ns (p = 0.38)</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>r = 0.68</t>
+          <t>V = 0.17</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Percardial effusion</t>
+          <t>RAA, cm²</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0% (0)</t>
+          <t>median: 17 [IQR: 15 - 17]
+range: 13 - 20</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>6.2% (3)</t>
+          <t>median: 22 [IQR: 19 - 25]
+range: 15 - 30</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>ns (p = 0.38)</t>
+          <t>p &lt; 0.001</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>V = 0.17</t>
+          <t>r = 0.69</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>RAA, cm²</t>
+          <t>CI</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Mean = 16 (SD: 1.6)
-Median = 17 [IQR: 15 - 17]
-Range: 13 - 20</t>
+          <t>median: 2.8 [IQR: 2.5 - 3.1]
+range: 1.8 - 3.8</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Mean = 22 (SD: 3.8)
-Median = 22 [IQR: 19 - 25]
-Range: 15 - 30</t>
+          <t>median: 2.4 [IQR: 2.1 - 2.8]
+range: 1.4 - 3.6</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>p &lt; 0.001</t>
+          <t>p = 0.0097</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>r = 0.69</t>
+          <t>r = 0.31</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CI</t>
+          <t>mRAP, mmHg</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Mean = 2.8 (SD: 0.43)
-Median = 2.8 [IQR: 2.5 - 3.1]
-Range: 1.8 - 3.8</t>
+          <t>median: 3 [IQR: 1 - 5.5]
+range: 0 - 16</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Mean = 2.5 (SD: 0.55)
-Median = 2.4 [IQR: 2.1 - 2.8]
-Range: 1.4 - 3.6</t>
+          <t>median: 8 [IQR: 5 - 9.2]
+range: 1 - 20</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>p = 0.0097</t>
+          <t>p &lt; 0.001</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>r = 0.31</t>
+          <t>r = 0.55</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>mRAP, mmHg</t>
+          <t>WHO class</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Mean = 3.8 (SD: 3.2)
-Median = 3 [IQR: 1 - 5.5]
-Range: 0 - 16</t>
+          <t>I/II: 80% (n = 28)
+III/IV: 20% (n = 7)</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Mean = 8 (SD: 4.1)
-Median = 8 [IQR: 5 - 9.2]
-Range: 1 - 20</t>
+          <t>I/II: 33% (n = 16)
+III/IV: 67% (n = 32)</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -5080,140 +5507,138 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>r = 0.55</t>
+          <t>V = 0.46</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>WHO class</t>
+          <t>SO2, %</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>I/II: 80% (28)
-III/IV: 20% (7)</t>
+          <t>≥95: 60% (n = 21)
+&lt;95: 40% (n = 14)</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>I/II: 33% (16)
-III/IV: 67% (32)</t>
+          <t>≥95: 40% (n = 19)
+&lt;95: 60% (n = 29)</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>p &lt; 0.001</t>
+          <t>ns (p = 0.15)</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>V = 0.46</t>
+          <t>V = 0.2</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>SO2, %</t>
+          <t>3-year mortality</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>≥95: 60% (21)
-&lt;95: 40% (14)</t>
+          <t>5.7% (n = 2)</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>≥95: 40% (19)
-&lt;95: 60% (29)</t>
+          <t>15% (n = 7)</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>ns (p = 0.15)</t>
+          <t>ns (p = 0.38)</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>V = 0.2</t>
+          <t>V = 0.14</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>3-year mortality</t>
+          <t>5-year mortality</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>5.7% (2)</t>
+          <t>5.7% (n = 2)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>15% (7)</t>
+          <t>19% (n = 9)</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>ns (p = 0.38)</t>
+          <t>ns (p = 0.19)</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>V = 0.14</t>
+          <t>V = 0.19</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>5-year mortality</t>
+          <t>mRASP</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>5.7% (2)</t>
+          <t>median: 0 [IQR: 0 - 0]
+range: 0 - 1</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>19% (9)</t>
+          <t>median: 1 [IQR: 1 - 1]
+range: 0 - 2</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>ns (p = 0.19)</t>
+          <t>p &lt; 0.001</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>V = 0.19</t>
+          <t>r = 0.8</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>mRASP</t>
+          <t>COMPERA</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Mean = 0.14 (SD: 0.36)
-Median = 0 [IQR: 0 - 0]
-Range: 0 - 1</t>
+          <t>median: 1 [IQR: 1 - 1]
+range: 1 - 2</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Mean = 1.1 (SD: 0.42)
-Median = 1 [IQR: 1 - 1]
-Range: 0 - 2</t>
+          <t>median: 2 [IQR: 2 - 2]
+range: 1 - 3</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -5223,28 +5648,26 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>r = 0.8</t>
+          <t>r = 0.72</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>COMPERA</t>
+          <t>SPAHR</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Mean = 1.2 (SD: 0.41)
-Median = 1 [IQR: 1 - 1]
-Range: 1 - 2</t>
+          <t>median: 1 [IQR: 1 - 1]
+range: 1 - 2</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Mean = 2 (SD: 0.35)
-Median = 2 [IQR: 2 - 2]
-Range: 1 - 3</t>
+          <t>median: 2 [IQR: 2 - 2]
+range: 1 - 3</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -5254,28 +5677,26 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>r = 0.72</t>
+          <t>r = 0.78</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>SPAHR</t>
+          <t>FPHR 3p</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Mean = 1.2 (SD: 0.43)
-Median = 1 [IQR: 1 - 1]
-Range: 1 - 2</t>
+          <t>median: 1 [IQR: 0 - 2]
+range: 0 - 3</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Mean = 2 (SD: 0.21)
-Median = 2 [IQR: 2 - 2]
-Range: 1 - 3</t>
+          <t>median: 3 [IQR: 2 - 3]
+range: 1 - 3</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -5285,28 +5706,26 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>r = 0.78</t>
+          <t>r = 0.62</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>FPHR 3p</t>
+          <t>FPHR 4p</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Mean = 1.1 (SD: 0.96)
-Median = 1 [IQR: 0 - 2]
-Range: 0 - 3</t>
+          <t>median: 1 [IQR: 0 - 2]
+range: 0 - 3</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Mean = 2.5 (SD: 0.68)
-Median = 3 [IQR: 2 - 3]
-Range: 1 - 3</t>
+          <t>median: 3 [IQR: 2 - 3]
+range: 1 - 4</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -5315,37 +5734,6 @@
         </is>
       </c>
       <c r="E27" t="inlineStr">
-        <is>
-          <t>r = 0.62</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>FPHR 4p</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Mean = 1.1 (SD: 0.95)
-Median = 1 [IQR: 0 - 2]
-Range: 0 - 3</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Mean = 2.6 (SD: 0.97)
-Median = 3 [IQR: 2 - 3]
-Range: 1 - 4</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>p &lt; 0.001</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
         <is>
           <t>r = 0.6</t>
         </is>

--- a/paper/supplementary_tables.xlsx
+++ b/paper/supplementary_tables.xlsx
@@ -7,11 +7,13 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Table S1" sheetId="1" r:id="rId1"/>
-    <sheet name="Table S2" sheetId="2" r:id="rId2"/>
-    <sheet name="Table S3" sheetId="3" r:id="rId3"/>
-    <sheet name="Table S4" sheetId="4" r:id="rId4"/>
-    <sheet name="Table S5" sheetId="5" r:id="rId5"/>
+    <sheet name="Cover" sheetId="1" r:id="rId1"/>
+    <sheet name="Table S1" sheetId="2" r:id="rId2"/>
+    <sheet name="Table S2" sheetId="3" r:id="rId3"/>
+    <sheet name="Table S3" sheetId="4" r:id="rId4"/>
+    <sheet name="Table S4" sheetId="5" r:id="rId5"/>
+    <sheet name="Table S5" sheetId="6" r:id="rId6"/>
+    <sheet name="Table S6" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -355,7 +357,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -364,998 +366,84 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Variable</t>
+          <t>Table</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Label</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Unit</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Stratification</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Used in risk modeling</t>
+          <t>Caption</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>Table S1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1: Innsbruck, 2: Linz/Vienna</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Cohort</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>no</t>
+          <t>Study variables.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>Table S2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>patient ID</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>no</t>
+          <t>Supplementary characteristic of the study cohorts. Numeric variables are presented as medians with interquartile ranges (IQR) and ranges. Categorical variables are presented as percents and counts withing the complete observation set.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>age_fc</t>
+          <t>Table S3</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>age at the diagnosis</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>yes</t>
+          <t>Results of univariable Cox modeling.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SMWD</t>
+          <t>Table S4</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Six Minute Walk Distance</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>SMWD</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>yes</t>
+          <t>Performance of the Elastic Net score and established risk assessment tools at predicting overall PAH survival.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>mPAP</t>
+          <t>Table S5</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Mean pulmonary arterial pressure</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>mPAP</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>mmHg</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>yes</t>
+          <t>Characteristic of the participant clusters in the Innsbruck cohort. Numeric variables are presented as medians with interquartile ranges (IQR) and ranges. Categorical variables are presented as percents and counts withing the complete observation set.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Firstdiagnosisdate</t>
+          <t>Table S6</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>date of first diagnosis, dd/mm/yyyy</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Diagnosis date</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>event1</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>1-year mortality</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>1-year mortality</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>no; yes</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>event3</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>3-year mortality</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>3-year mortality</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>no; yes</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>event5</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>5-year mortality</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>5-year mortality</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>no; yes</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>death_study</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>overall mortality during the study period</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Overall mortality</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>death_study_fct</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>overall mortality during the study period</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Overall mortality</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>no; yes</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Survival_time_from_FD_months</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>survival time from the diagnosis</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>OS</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>months</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>surv_months</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>survival time from the diagnosis</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>OS</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>months</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Date_of_death</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>death date</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Death date</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>observation_time_yrs</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>observation time</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Obs. Time</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>years</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>sex</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>sex</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Sex</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>female; male</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>PVR</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Pulmonary vascular resistance</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>PVR</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Wood</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>PCWP</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Pulmonary capillary wedge pressure</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>PCWP</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>mmHg</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>anemia</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>anemia</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Anemia</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>no; yes</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>RDW_log</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>RDW</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>log RDW</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>renal_ins</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Renal insufficiency, GFR &lt; 60%</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Renal insufficiency</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>no; yes</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>FT_log</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Ferritin</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>log FT</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>ng/ml</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>TSAT_log</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Transferrin saturation</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>log TF-Sat</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>MCV</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>MCV</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>MCV</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>fl</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>NTproBNP_log</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>NT-pro-BNP</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>log NT-pro-BNP</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>pg/ml</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>percardial_effusion</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Percardial effusion</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Percardial effusion</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>no; yes</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>RA_area</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Right Atrial Area</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>RAA</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>cm2</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>cardiac_index</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Cardiac index</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>CI</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>mRAP</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Mean right atrial pressure</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>mRAP</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>mmHg</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>WHOFc_class</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>WHO Functional Classification</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>WHO class</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>I/II; III/IV</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>SO2_RL_class</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>O2 saturation</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>SO2</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>≥95; &lt;95</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>mRASP</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>mRASP risk score</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>mRASP</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Compera</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>COMPERA score</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>COMPERA</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>SPAHR</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>SAPHR score</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>SPAHR</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>FRENCH3p</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>FRENCH score, 3 parameters</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>FPHR 3p</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>FRENCH4p</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>FRENCH score, 4 parameters</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>FPHR 4p</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Reveal_lite2_3_cat</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Reveal Lite, Risk Classes</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>Reveal Lite</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Reveal2_risk_3_cat</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Reveal 2.0 Risk classes</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>Reveal 2.0</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>no</t>
+          <t>Characteristic of the participant clusters in the Linz/Vienna cohort. Numeric variables are presented as medians with interquartile ranges (IQR) and ranges. Categorical variables are presented as percents and counts withing the complete observation set.</t>
         </is>
       </c>
     </row>
@@ -1365,6 +453,883 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Name in R</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Name in the report</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Stratification</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Used in risk modeling</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>age_fc</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>age at the diagnosis</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>years</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>SMWD</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Six Minute Walk Distance</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>SMWD</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>mPAP</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Mean pulmonary arterial pressure</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>mPAP</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>mmHg</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>event3</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>3-year mortality</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>3-year mortality</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>no; yes</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>event5</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>5-year mortality</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>5-year mortality</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>no; yes</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>death_study</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>overall mortality during the study period</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Overall mortality</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>death_study_fct</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>overall mortality during the study period</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Overall mortality</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>no; yes</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>surv_months</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>survival time from the diagnosis</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>OS</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>months</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sex</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>sex</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Sex</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>female; male</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>PVR</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Pulmonary vascular resistance</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>PVR</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Wood</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>PCWP</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Pulmonary capillary wedge pressure</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>PCWP</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>mmHg</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>anemia</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>anemia</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Anemia</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>no; yes</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>RDW_log</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>RDW</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>log RDW</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>renal_ins</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Renal insufficiency, GFR &lt; 60%</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Renal insufficiency</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>no; yes</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>FT_log</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Ferritin</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>log FT</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>ng/ml</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>TSAT_log</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Transferrin saturation</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>log TF-Sat</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>MCV</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>MCV</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>MCV</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>fl</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>NTproBNP_log</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>NT-pro-BNP</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>log NT-pro-BNP</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>pg/ml</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>percardial_effusion</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Percardial effusion</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Percardial effusion</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>no; yes</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>RA_area</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Right Atrial Area</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>RAA</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>cm2</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>cardiac_index</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Cardiac index</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>CI</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>mRAP</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Mean right atrial pressure</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>mRAP</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>mmHg</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>WHOFc_class</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>WHO Functional Classification</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>WHO class</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>I/II; III/IV</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>SO2_RL_class</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>O2 saturation</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>SO2</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>≥95; &lt;95</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>mRASP</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>modified Risk Assessment Score of PAH</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>mRASP</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>low; int; high</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Compera</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Comparative, Prospective Registry of Newly Initiated Therapies for Pulmonary Hypertension score</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>COMPERA</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>low; int; high</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>SPAHR</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Swedish Pulmonary Arterial Hypertension Registry score</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>SPAHR</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>low; int; high</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>FRENCH3p</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>French Pulmonary Arterial Hypertension Registry score, 3 parameters</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>FPHR 3p</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>0; 1; 2; 3</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>FRENCH4p</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>French Pulmonary Arterial Hypertension Registry score, 4 parameters</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>FPHR 4p</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>0; 1; 2; 3; 4</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Reveal_lite2_3_cat</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Reveal Lite, Risk Classes</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Reveal Lite</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>low; int; high</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Reveal2_risk_3_cat</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Reveal 2.0 Risk classes</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Reveal 2.0</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>low; int; high</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E18"/>
   <sheetViews>
@@ -1402,7 +1367,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>N participants</t>
+          <t>Participants, n</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1424,13 +1389,13 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>median: 10 [IQR: 6 - 13]
+          <t>10 [IQR: 6 - 13]
 range: 2 - 26</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>median: 6 [IQR: 3 - 9]
+          <t>6 [IQR: 3 - 9]
 range: 0 - 20</t>
         </is>
       </c>
@@ -1453,14 +1418,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>≥95: 47% (n = 47)
-&lt;95: 53% (n = 53)</t>
+          <t>≥95: 47% (47)
+&lt;95: 53% (53)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>≥95: 48% (n = 40)
-&lt;95: 52% (n = 43)</t>
+          <t>≥95: 48% (40)
+&lt;95: 52% (43)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1482,13 +1447,13 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>median: 6.6 [IQR: 5.1 - 7.7]
+          <t>6.6 [IQR: 5.1 - 7.7]
 range: 3.4 - 11</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>median: 6.6 [IQR: 5.3 - 7.4]
+          <t>6.6 [IQR: 5.3 - 7.4]
 range: 3.2 - 10</t>
         </is>
       </c>
@@ -1511,13 +1476,13 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>median: 2.4 [IQR: 1.9 - 2.8]
+          <t>2.4 [IQR: 1.9 - 2.8]
 range: 1.6 - 4.2</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>median: 2.6 [IQR: 2.2 - 3]
+          <t>2.6 [IQR: 2.2 - 3]
 range: 1.4 - 3.8</t>
         </is>
       </c>
@@ -1535,24 +1500,24 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>RAA, cm2</t>
+          <t>RAA, cm²</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>median: 22 [IQR: 17 - 24]
+          <t>22 [IQR: 17 - 24]
 range: 13 - 34</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>median: 18 [IQR: 17 - 23]
+          <t>18 [IQR: 17 - 23]
 range: 13 - 30</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>p = 0.012</t>
+          <t>p = 0.014</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1569,19 +1534,19 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>median: 88 [IQR: 85 - 91]
+          <t>88 [IQR: 85 - 91]
 range: 58 - 100</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>median: 89 [IQR: 86 - 93]
+          <t>89 [IQR: 86 - 93]
 range: 76 - 110</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>ns (p = 0.3)</t>
+          <t>ns (p = 0.33)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1598,19 +1563,19 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>median: 2.7 [IQR: 2.6 - 2.8]
+          <t>2.7 [IQR: 2.6 - 2.8]
 range: 2.5 - 3.1</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>median: 2.7 [IQR: 2.7 - 2.8]
+          <t>2.7 [IQR: 2.7 - 2.8]
 range: 2.5 - 3.1</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>p = 0.012</t>
+          <t>p = 0.014</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1627,19 +1592,19 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>median: 4.1 [IQR: 3.5 - 4.7]
+          <t>4.1 [IQR: 3.5 - 4.7]
 range: 1.1 - 6.5</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>median: 4.4 [IQR: 3.4 - 4.9]
+          <t>4.4 [IQR: 3.4 - 4.9]
 range: 1.9 - 7.1</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>ns (p = 0.58)</t>
+          <t>ns (p = 0.6)</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1656,19 +1621,19 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>median: 3 [IQR: 2.6 - 3.3]
+          <t>3 [IQR: 2.6 - 3.3]
 range: 0.69 - 4.3</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>median: 3 [IQR: 2.5 - 3.4]
+          <t>3 [IQR: 2.5 - 3.4]
 range: 0.69 - 4.5</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>ns (p = 0.5)</t>
+          <t>ns (p = 0.52)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1680,145 +1645,161 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>mRASP</t>
+          <t>mRASP, risk strata</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>median: 1 [IQR: 0 - 1]
-range: 0 - 2</t>
+          <t>low: 32% (32)
+int: 52% (52)
+high: 16% (16)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>median: 1 [IQR: 0 - 1]
-range: 0 - 2</t>
+          <t>low: 39% (32)
+int: 53% (44)
+high: 8.4% (7)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>ns (p = 0.3)</t>
+          <t>ns (p = 0.4)</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>r = 0.1</t>
+          <t>V = 0.12</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>COMPERA</t>
+          <t>COMPERA, risk strata</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>median: 2 [IQR: 2 - 2]
-range: 1 - 3</t>
+          <t>low: 22% (22)
+int: 64% (64)
+high: 14% (14)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>median: 2 [IQR: 1 - 2]
-range: 1 - 3</t>
+          <t>low: 39% (32)
+int: 59% (49)
+high: 2.4% (2)</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>p = 0.0091</t>
+          <t>p = 0.014</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>r = 0.23</t>
+          <t>V = 0.25</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>SPAHR</t>
+          <t>SPAHR, risk strata</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>median: 2 [IQR: 2 - 2]
-range: 1 - 3</t>
+          <t>low: 24% (24)
+int: 65% (65)
+high: 11% (11)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>median: 2 [IQR: 1 - 2]
-range: 1 - 3</t>
+          <t>low: 34% (28)
+int: 65% (54)
+high: 1.2% (1)</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>ns (p = 0.065)</t>
+          <t>p = 0.043</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>r = 0.17</t>
+          <t>V = 0.21</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>FPHR 3p</t>
+          <t>FPHR 3p, number of risk factors</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>median: 2 [IQR: 1 - 3]
-range: 0 - 3</t>
+          <t>0: 8% (8)
+1: 18% (18)
+2: 30% (30)
+3: 44% (44)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>median: 2 [IQR: 1 - 3]
-range: 0 - 3</t>
+          <t>0: 13% (11)
+1: 20% (17)
+2: 30% (25)
+3: 36% (30)</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>ns (p = 0.3)</t>
+          <t>ns (p = 0.72)</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>r = 0.099</t>
+          <t>V = 0.11</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>FPHR 4p</t>
+          <t>FPHR 4p, number of risk factors</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>median: 3 [IQR: 2 - 4]
-range: 0 - 4</t>
+          <t>0: 3% (3)
+1: 10% (10)
+2: 26% (26)
+3: 31% (31)
+4: 30% (30)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>median: 2 [IQR: 1 - 3]
-range: 0 - 4</t>
+          <t>0: 13% (11)
+1: 25% (21)
+2: 25% (21)
+3: 27% (22)
+4: 9.6% (8)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>p &lt; 0.001</t>
+          <t>p = 0.002</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>r = 0.33</t>
+          <t>V = 0.35</t>
         </is>
       </c>
     </row>
@@ -1830,12 +1811,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>13% (n = 13)</t>
+          <t>13% (13)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>11% (n = 9)</t>
+          <t>11% (9)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1857,17 +1838,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>33% (n = 33)</t>
+          <t>33% (33)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>24% (n = 20)</t>
+          <t>24% (20)</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>ns (p = 0.35)</t>
+          <t>ns (p = 0.38)</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1881,9 +1862,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H65"/>
+  <dimension ref="A1:I65"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1907,12 +1888,12 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Model order</t>
+          <t>Order</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>HR</t>
+          <t>HR, 95% CI</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -1922,12 +1903,17 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>C index</t>
+          <t>C index, 95% CI</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
           <t>R²</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>IBS</t>
         </is>
       </c>
     </row>
@@ -1947,7 +1933,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.7 [1.3 - 5.3]</t>
+          <t>2.6 [1.3 - 4.9]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -1963,6 +1949,11 @@
       <c r="H2" t="inlineStr">
         <is>
           <t>0.33</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>0.11</t>
         </is>
       </c>
     </row>
@@ -1982,12 +1973,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.71 [0.32 - 1.5]</t>
+          <t>0.72 [0.36 - 1.5]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>ns (p = 0.47)</t>
+          <t>ns (p = 0.45)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -1998,6 +1989,11 @@
       <c r="H3" t="inlineStr">
         <is>
           <t>0.33</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>0.11</t>
         </is>
       </c>
     </row>
@@ -2035,6 +2031,11 @@
           <t>0.3</t>
         </is>
       </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2070,6 +2071,11 @@
           <t>0.3</t>
         </is>
       </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2105,6 +2111,11 @@
           <t>0.38</t>
         </is>
       </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2140,6 +2151,11 @@
           <t>0.38</t>
         </is>
       </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2177,6 +2193,11 @@
           <t>0.069</t>
         </is>
       </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2212,6 +2233,11 @@
           <t>0.25</t>
         </is>
       </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2247,6 +2273,11 @@
           <t>0.25</t>
         </is>
       </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2282,6 +2313,11 @@
           <t>0.017</t>
         </is>
       </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2317,6 +2353,11 @@
           <t>0.017</t>
         </is>
       </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2354,6 +2395,11 @@
           <t>0.0093</t>
         </is>
       </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2389,6 +2435,11 @@
           <t>0.2</t>
         </is>
       </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2424,6 +2475,11 @@
           <t>0.2</t>
         </is>
       </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2461,6 +2517,11 @@
           <t>0.13</t>
         </is>
       </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2496,6 +2557,11 @@
           <t>0.039</t>
         </is>
       </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2531,6 +2597,11 @@
           <t>0.039</t>
         </is>
       </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2566,6 +2637,11 @@
           <t>0.056</t>
         </is>
       </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2601,6 +2677,11 @@
           <t>0.056</t>
         </is>
       </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2636,6 +2717,11 @@
           <t>0.13</t>
         </is>
       </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2671,6 +2757,11 @@
           <t>0.13</t>
         </is>
       </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2706,6 +2797,11 @@
           <t>0.49</t>
         </is>
       </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2741,6 +2837,11 @@
           <t>0.49</t>
         </is>
       </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2778,6 +2879,11 @@
           <t>0.048</t>
         </is>
       </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2813,6 +2919,11 @@
           <t>0.43</t>
         </is>
       </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2848,6 +2959,11 @@
           <t>0.43</t>
         </is>
       </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2883,6 +2999,11 @@
           <t>0.4</t>
         </is>
       </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2918,6 +3039,11 @@
           <t>0.4</t>
         </is>
       </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2953,6 +3079,11 @@
           <t>0.074</t>
         </is>
       </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2988,6 +3119,11 @@
           <t>0.074</t>
         </is>
       </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3025,6 +3161,11 @@
           <t>0.05</t>
         </is>
       </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3062,6 +3203,11 @@
           <t>0.027</t>
         </is>
       </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3097,6 +3243,11 @@
           <t>0.26</t>
         </is>
       </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3132,6 +3283,11 @@
           <t>0.26</t>
         </is>
       </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3167,6 +3323,11 @@
           <t>0.3</t>
         </is>
       </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3202,6 +3363,11 @@
           <t>0.3</t>
         </is>
       </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3237,6 +3403,11 @@
           <t>0.19</t>
         </is>
       </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3272,6 +3443,11 @@
           <t>0.19</t>
         </is>
       </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -3309,6 +3485,11 @@
           <t>0.33</t>
         </is>
       </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -3344,6 +3525,11 @@
           <t>0.38</t>
         </is>
       </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -3379,6 +3565,11 @@
           <t>0.38</t>
         </is>
       </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -3414,6 +3605,11 @@
           <t>0.17</t>
         </is>
       </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -3449,6 +3645,11 @@
           <t>0.17</t>
         </is>
       </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3486,6 +3687,11 @@
           <t>0.042</t>
         </is>
       </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -3521,6 +3727,11 @@
           <t>0.1</t>
         </is>
       </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3556,6 +3767,11 @@
           <t>0.1</t>
         </is>
       </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3593,6 +3809,11 @@
           <t>0.014</t>
         </is>
       </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3628,6 +3849,11 @@
           <t>0.075</t>
         </is>
       </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3663,6 +3889,11 @@
           <t>0.075</t>
         </is>
       </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3698,6 +3929,11 @@
           <t>0.097</t>
         </is>
       </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -3733,6 +3969,11 @@
           <t>0.097</t>
         </is>
       </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -3768,6 +4009,11 @@
           <t>0.059</t>
         </is>
       </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -3803,6 +4049,11 @@
           <t>0.059</t>
         </is>
       </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -3838,6 +4089,11 @@
           <t>0.31</t>
         </is>
       </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -3873,6 +4129,11 @@
           <t>0.31</t>
         </is>
       </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -3910,6 +4171,11 @@
           <t>0.071</t>
         </is>
       </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -3945,6 +4211,11 @@
           <t>0.12</t>
         </is>
       </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -3980,6 +4251,11 @@
           <t>0.12</t>
         </is>
       </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -4015,6 +4291,11 @@
           <t>0.087</t>
         </is>
       </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -4050,6 +4331,11 @@
           <t>0.087</t>
         </is>
       </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -4085,6 +4371,11 @@
           <t>0.25</t>
         </is>
       </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -4120,6 +4411,11 @@
           <t>0.25</t>
         </is>
       </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -4157,6 +4453,11 @@
           <t>0.36</t>
         </is>
       </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -4192,6 +4493,11 @@
       <c r="H65" t="inlineStr">
         <is>
           <t>0.045</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>0.15</t>
         </is>
       </c>
     </row>
@@ -4200,9 +4506,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4211,759 +4517,459 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Cohort</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Variable</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Cluster #1</t>
-        </is>
-      </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Cluster #2</t>
+          <t>C index, 95% CI</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Significance</t>
+          <t>R²</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Effect size</t>
+          <t>IBS</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>N participants</t>
+          <t>IBK</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>ElasticNet</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>0.82 [0.75 - 0.89]</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0.098</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Age, y</t>
+          <t>IBK</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>median: 58 [IQR: 48 - 68]
-range: 4 - 80</t>
+          <t>LASSO ensemble</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>median: 69 [IQR: 65 - 74]
-range: 26 - 84</t>
+          <t>0.84 [0.78 - 0.9]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>p = 0.0015</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>r = 0.34</t>
+          <t>0.081</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SMWD, m</t>
+          <t>IBK</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>median: 370 [IQR: 310 - 450]
-range: 120 - 580</t>
+          <t>mRASP</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>median: 240 [IQR: 160 - 330]
-range: 50 - 610</t>
+          <t>0.72 [0.64 - 0.8]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>p &lt; 0.001</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>r = 0.47</t>
+          <t>0.12</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>mPAP, mmHg</t>
+          <t>IBK</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>median: 30 [IQR: 27 - 37]
-range: 26 - 87</t>
+          <t>COMPERA</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>median: 47 [IQR: 40 - 55]
-range: 26 - 120</t>
+          <t>0.7 [0.63 - 0.78]</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>p &lt; 0.001</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>r = 0.56</t>
+          <t>0.13</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>IBK</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>female: 78% (n = 36)
-male: 22% (n = 10)</t>
+          <t>SPAHR</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>female: 52% (n = 28)
-male: 48% (n = 26)</t>
+          <t>0.73 [0.66 - 0.79]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>p = 0.018</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>V = 0.27</t>
+          <t>0.11</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>PVR, Wood</t>
+          <t>IBK</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>median: 6.8 [IQR: 5.9 - 9.6]
-range: 3.3 - 38</t>
+          <t>FPHR 3p</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>median: 14 [IQR: 11 - 22]
-range: 4.3 - 43</t>
+          <t>0.66 [0.58 - 0.74]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>p &lt; 0.001</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>r = 0.6</t>
+          <t>0.14</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Anemia</t>
+          <t>IBK</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>15% (n = 7)</t>
+          <t>FPHR 4p</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>22% (n = 12)</t>
+          <t>0.69 [0.61 - 0.77]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>ns (p = 0.53)</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>V = 0.089</t>
+          <t>0.13</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>log RDW, %</t>
+          <t>IBK</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>median: 2.6 [IQR: 2.6 - 2.7]
-range: 2.5 - 2.9</t>
+          <t>Reveal Lite</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>median: 2.7 [IQR: 2.6 - 2.8]
-range: 2.6 - 3.1</t>
+          <t>0.69 [0.61 - 0.77]</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>p &lt; 0.001</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>r = 0.38</t>
+          <t>0.11</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Renal insufficiency</t>
+          <t>IBK</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>17% (n = 8)</t>
+          <t>Reveal 2.0</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>50% (n = 27)</t>
+          <t>0.68 [0.61 - 0.76]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>p = 0.0026</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>V = 0.34</t>
+          <t>0.12</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>log FT, ng/ml</t>
+          <t>LZ/W</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>median: 4 [IQR: 3.3 - 4.7]
-range: 1.1 - 6.5</t>
+          <t>ElasticNet</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>median: 4.2 [IQR: 3.8 - 4.9]
-range: 1.8 - 6.5</t>
+          <t>0.77 [0.66 - 0.88]</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>ns (p = 0.23)</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>r = 0.12</t>
+          <t>0.11</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>log TF-Sat, %</t>
+          <t>LZ/W</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>median: 3 [IQR: 2.7 - 3.4]
-range: 1.8 - 4.3</t>
+          <t>LASSO ensemble</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>median: 2.8 [IQR: 2.4 - 3.2]
-range: 0.69 - 4</t>
+          <t>0.74 [0.64 - 0.85]</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>ns (p = 0.16)</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>r = 0.15</t>
+          <t>0.11</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>MCV, fl</t>
+          <t>LZ/W</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>median: 88 [IQR: 85 - 90]
-range: 76 - 96</t>
+          <t>mRASP</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>median: 88 [IQR: 86 - 92]
-range: 58 - 100</t>
+          <t>0.67 [0.59 - 0.76]</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>ns (p = 0.33)</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>r = 0.1</t>
+          <t>0.11</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>log NT-pro-BNP, pg/ml</t>
+          <t>LZ/W</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>median: 5.1 [IQR: 4.4 - 5.8]
-range: 3.4 - 7.5</t>
+          <t>COMPERA</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>median: 7.6 [IQR: 6.9 - 8.1]
-range: 4.9 - 11</t>
+          <t>0.64 [0.54 - 0.74]</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>p &lt; 0.001</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>r = 0.78</t>
+          <t>0.14</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Percardial effusion</t>
+          <t>LZ/W</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>6.5% (n = 3)</t>
+          <t>SPAHR</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>24% (n = 13)</t>
+          <t>0.66 [0.57 - 0.75]</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>p = 0.047</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>V = 0.24</t>
+          <t>0.13</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>RAA, cm²</t>
+          <t>LZ/W</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>median: 17 [IQR: 16 - 21]
-range: 13 - 27</t>
+          <t>FPHR 3p</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>median: 24 [IQR: 23 - 27]
-range: 15 - 34</t>
+          <t>0.69 [0.58 - 0.8]</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>p &lt; 0.001</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>r = 0.67</t>
+          <t>0.13</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CI</t>
+          <t>LZ/W</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>median: 2.7 [IQR: 2.4 - 3]
-range: 1.8 - 4.2</t>
+          <t>FPHR 4p</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>median: 2 [IQR: 1.9 - 2.3]
-range: 1.6 - 3.5</t>
+          <t>0.75 [0.65 - 0.86]</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>p &lt; 0.001</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>r = 0.6</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>mRAP, mmHg</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>median: 8 [IQR: 6 - 12]
-range: 2 - 18</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>median: 11 [IQR: 8 - 14]
-range: 2 - 26</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>p = 0.024</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>r = 0.24</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>WHO class</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>I/II: 48% (n = 22)
-III/IV: 52% (n = 24)</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>I/II: 31% (n = 17)
-III/IV: 69% (n = 37)</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>ns (p = 0.16)</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>V = 0.17</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>SO2, %</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>≥95: 57% (n = 26)
-&lt;95: 43% (n = 20)</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>≥95: 39% (n = 21)
-&lt;95: 61% (n = 33)</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>ns (p = 0.15)</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>V = 0.18</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>3-year mortality</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>6.5% (n = 3)</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>19% (n = 10)</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>ns (p = 0.16)</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>V = 0.18</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>5-year mortality</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>6.5% (n = 3)</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>33% (n = 18)</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>p = 0.0042</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>V = 0.33</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>mRASP</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>median: 0 [IQR: 0 - 1]
-range: 0 - 1</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>median: 1 [IQR: 1 - 2]
-range: 0 - 2</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>p &lt; 0.001</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>r = 0.68</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>COMPERA</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>median: 2 [IQR: 1 - 2]
-range: 1 - 2</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>median: 2 [IQR: 2 - 2.8]
-range: 1 - 3</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>p &lt; 0.001</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>r = 0.58</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>SPAHR</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>median: 1.5 [IQR: 1 - 2]
-range: 1 - 2</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>median: 2 [IQR: 2 - 2]
-range: 1 - 3</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>p &lt; 0.001</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>r = 0.59</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>FPHR 3p</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>median: 2 [IQR: 1 - 2]
-range: 0 - 3</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>median: 3 [IQR: 2 - 3]
-range: 1 - 3</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>p &lt; 0.001</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>r = 0.55</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>FPHR 4p</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>median: 2 [IQR: 2 - 3]
-range: 0 - 4</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>median: 3 [IQR: 3 - 4]
-range: 1 - 4</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>p &lt; 0.001</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>r = 0.49</t>
+          <t>0.14</t>
         </is>
       </c>
     </row>
@@ -4972,9 +4978,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5010,94 +5016,88 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>N participants</t>
+          <t>Participants, n</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>46</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>54</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Age, y</t>
+          <t>3-year mortality</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>median: 63 [IQR: 46 - 71]
-range: 23 - 81</t>
+          <t>6.5% (3)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>median: 71 [IQR: 64 - 74]
-range: 26 - 82</t>
+          <t>19% (10)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>p = 0.0097</t>
+          <t>ns (p = 0.16)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>r = 0.31</t>
+          <t>V = 0.18</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SMWD, m</t>
+          <t>5-year mortality</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>median: 430 [IQR: 350 - 510]
-range: 190 - 620</t>
+          <t>6.5% (3)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>median: 320 [IQR: 180 - 380]
-range: 50 - 580</t>
+          <t>33% (18)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>p &lt; 0.001</t>
+          <t>p = 0.0039</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>r = 0.46</t>
+          <t>V = 0.33</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>mPAP, mmHg</t>
+          <t>Overall mortality</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>median: 34 [IQR: 28 - 39]
-range: 18 - 57</t>
+          <t>11% (5)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>median: 44 [IQR: 35 - 50]
-range: 28 - 67</t>
+          <t>52% (28)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -5107,55 +5107,55 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>r = 0.47</t>
+          <t>V = 0.43</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Age, years</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>female: 77% (n = 27)
-male: 23% (n = 8)</t>
+          <t>58 [IQR: 48 - 68]
+range: 19 - 80</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>female: 58% (n = 28)
-male: 42% (n = 20)</t>
+          <t>69 [IQR: 65 - 74]
+range: 26 - 84</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ns (p = 0.16)</t>
+          <t>p = 0.0013</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>V = 0.2</t>
+          <t>r = 0.34</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>PVR, Wood</t>
+          <t>SMWD, m</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>median: 3.7 [IQR: 3 - 5]
-range: 1.4 - 10</t>
+          <t>370 [IQR: 310 - 450]
+range: 120 - 580</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>median: 6.4 [IQR: 4.9 - 9]
-range: 2.3 - 20</t>
+          <t>240 [IQR: 160 - 330]
+range: 50 - 610</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -5165,310 +5165,312 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>r = 0.46</t>
+          <t>r = 0.47</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Anemia</t>
+          <t>mPAP, mmHg</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>5.7% (n = 2)</t>
+          <t>30 [IQR: 27 - 37]
+range: 26 - 87</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>25% (n = 12)</t>
+          <t>47 [IQR: 40 - 55]
+range: 26 - 120</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>ns (p = 0.07)</t>
+          <t>p &lt; 0.001</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>V = 0.25</t>
+          <t>r = 0.56</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>log RDW, %</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>median: 2.7 [IQR: 2.6 - 2.8]
-range: 2.5 - 2.8</t>
+          <t>female: 78% (36)
+male: 22% (10)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>median: 2.8 [IQR: 2.7 - 2.8]
-range: 2.5 - 3.1</t>
+          <t>female: 52% (28)
+male: 48% (26)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>p = 0.011</t>
+          <t>p = 0.017</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>r = 0.3</t>
+          <t>V = 0.27</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Renal insufficiency</t>
+          <t>PVR, Wood</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>11% (n = 4)</t>
+          <t>6.8 [IQR: 5.9 - 9.6]
+range: 3.3 - 38</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>23% (n = 11)</t>
+          <t>14 [IQR: 11 - 22]
+range: 4.3 - 43</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>ns (p = 0.33)</t>
+          <t>p &lt; 0.001</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>V = 0.15</t>
+          <t>r = 0.6</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>log FT, ng/ml</t>
+          <t>PCWP, mmHg</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>median: 4.2 [IQR: 3 - 4.8]
-range: 1.9 - 5.7</t>
+          <t>12 [IQR: 9 - 14]
+range: 6 - 23</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>median: 4.4 [IQR: 3.6 - 5]
-range: 2.5 - 7.1</t>
+          <t>14 [IQR: 11 - 19]
+range: 4 - 32</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>ns (p = 0.12)</t>
+          <t>p = 0.041</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>r = 0.19</t>
+          <t>r = 0.22</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>log TF-Sat, %</t>
+          <t>Anemia</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>median: 3.1 [IQR: 2.8 - 3.4]
-range: 1.6 - 4.5</t>
+          <t>15% (7)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>median: 2.8 [IQR: 2.4 - 3.4]
-range: 0.69 - 4.1</t>
+          <t>22% (12)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>ns (p = 0.16)</t>
+          <t>ns (p = 0.53)</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>r = 0.17</t>
+          <t>V = 0.089</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>MCV, fl</t>
+          <t>log RDW, %</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>median: 89 [IQR: 84 - 94]
-range: 78 - 110</t>
+          <t>2.6 [IQR: 2.6 - 2.7]
+range: 2.5 - 2.9</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>median: 90 [IQR: 87 - 93]
-range: 76 - 100</t>
+          <t>2.7 [IQR: 2.6 - 2.8]
+range: 2.6 - 3.1</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>ns (p = 0.68)</t>
+          <t>p &lt; 0.001</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>r = 0.045</t>
+          <t>r = 0.38</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>log NT-pro-BNP, pg/ml</t>
+          <t>Renal insufficiency</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>median: 5.3 [IQR: 4.9 - 6]
-range: 3.2 - 7</t>
+          <t>17% (8)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>median: 7.3 [IQR: 6.7 - 7.9]
-range: 4.8 - 10</t>
+          <t>50% (27)</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>p &lt; 0.001</t>
+          <t>p = 0.0024</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>r = 0.68</t>
+          <t>V = 0.34</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Percardial effusion</t>
+          <t>log FT, ng/ml</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0% (n = 0)</t>
+          <t>4 [IQR: 3.3 - 4.7]
+range: 1.1 - 6.5</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>6.2% (n = 3)</t>
+          <t>4.2 [IQR: 3.8 - 4.9]
+range: 1.8 - 6.5</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>ns (p = 0.38)</t>
+          <t>ns (p = 0.23)</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>V = 0.17</t>
+          <t>r = 0.12</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>RAA, cm²</t>
+          <t>log TF-Sat, %</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>median: 17 [IQR: 15 - 17]
-range: 13 - 20</t>
+          <t>3 [IQR: 2.7 - 3.4]
+range: 1.8 - 4.3</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>median: 22 [IQR: 19 - 25]
-range: 15 - 30</t>
+          <t>2.8 [IQR: 2.4 - 3.2]
+range: 0.69 - 4</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>p &lt; 0.001</t>
+          <t>ns (p = 0.16)</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>r = 0.69</t>
+          <t>r = 0.15</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CI</t>
+          <t>MCV, fl</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>median: 2.8 [IQR: 2.5 - 3.1]
-range: 1.8 - 3.8</t>
+          <t>88 [IQR: 85 - 90]
+range: 76 - 96</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>median: 2.4 [IQR: 2.1 - 2.8]
-range: 1.4 - 3.6</t>
+          <t>88 [IQR: 86 - 92]
+range: 58 - 100</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>p = 0.0097</t>
+          <t>ns (p = 0.33)</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>r = 0.31</t>
+          <t>r = 0.1</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>mRAP, mmHg</t>
+          <t>log NT-pro-BNP, pg/ml</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>median: 3 [IQR: 1 - 5.5]
-range: 0 - 16</t>
+          <t>5.1 [IQR: 4.4 - 5.8]
+range: 3.4 - 7.5</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>median: 8 [IQR: 5 - 9.2]
-range: 1 - 20</t>
+          <t>7.6 [IQR: 6.9 - 8.1]
+range: 4.9 - 11</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -5478,196 +5480,200 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>r = 0.55</t>
+          <t>r = 0.78</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>WHO class</t>
+          <t>Percardial effusion</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>I/II: 80% (n = 28)
-III/IV: 20% (n = 7)</t>
+          <t>6.5% (3)</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>I/II: 33% (n = 16)
-III/IV: 67% (n = 32)</t>
+          <t>24% (13)</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>p &lt; 0.001</t>
+          <t>p = 0.046</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>V = 0.46</t>
+          <t>V = 0.24</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>SO2, %</t>
+          <t>RAA, cm²</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>≥95: 60% (n = 21)
-&lt;95: 40% (n = 14)</t>
+          <t>17 [IQR: 16 - 21]
+range: 13 - 27</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>≥95: 40% (n = 19)
-&lt;95: 60% (n = 29)</t>
+          <t>24 [IQR: 23 - 27]
+range: 15 - 34</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>ns (p = 0.15)</t>
+          <t>p &lt; 0.001</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>V = 0.2</t>
+          <t>r = 0.67</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>3-year mortality</t>
+          <t>CI, NA</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>5.7% (n = 2)</t>
+          <t>2.7 [IQR: 2.4 - 3]
+range: 1.8 - 4.2</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>15% (n = 7)</t>
+          <t>2 [IQR: 1.9 - 2.3]
+range: 1.6 - 3.5</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>ns (p = 0.38)</t>
+          <t>p &lt; 0.001</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>V = 0.14</t>
+          <t>r = 0.6</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>5-year mortality</t>
+          <t>mRAP, mmHg</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>5.7% (n = 2)</t>
+          <t>8 [IQR: 6 - 12]
+range: 2 - 18</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>19% (n = 9)</t>
+          <t>11 [IQR: 8 - 14]
+range: 2 - 26</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>ns (p = 0.19)</t>
+          <t>p = 0.023</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>V = 0.19</t>
+          <t>r = 0.24</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>mRASP</t>
+          <t>WHO class</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>median: 0 [IQR: 0 - 0]
-range: 0 - 1</t>
+          <t>I/II: 48% (22)
+III/IV: 52% (24)</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>median: 1 [IQR: 1 - 1]
-range: 0 - 2</t>
+          <t>I/II: 31% (17)
+III/IV: 69% (37)</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>p &lt; 0.001</t>
+          <t>ns (p = 0.16)</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>r = 0.8</t>
+          <t>V = 0.17</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>COMPERA</t>
+          <t>SO2</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>median: 1 [IQR: 1 - 1]
-range: 1 - 2</t>
+          <t>≥95: 57% (26)
+&lt;95: 43% (20)</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>median: 2 [IQR: 2 - 2]
-range: 1 - 3</t>
+          <t>≥95: 39% (21)
+&lt;95: 61% (33)</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>p &lt; 0.001</t>
+          <t>ns (p = 0.15)</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>r = 0.72</t>
+          <t>V = 0.18</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>SPAHR</t>
+          <t>mRASP, risk strata</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>median: 1 [IQR: 1 - 1]
-range: 1 - 2</t>
+          <t>low: 65% (30)
+int: 35% (16)
+high: 0% (0)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>median: 2 [IQR: 2 - 2]
-range: 1 - 3</t>
+          <t>low: 3.7% (2)
+int: 67% (36)
+high: 30% (16)</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -5677,26 +5683,28 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>r = 0.78</t>
+          <t>V = 0.69</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>FPHR 3p</t>
+          <t>COMPERA, risk strata</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>median: 1 [IQR: 0 - 2]
-range: 0 - 3</t>
+          <t>low: 46% (21)
+int: 54% (25)
+high: 0% (0)</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>median: 3 [IQR: 2 - 3]
-range: 1 - 3</t>
+          <t>low: 1.9% (1)
+int: 72% (39)
+high: 26% (14)</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -5706,26 +5714,28 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>r = 0.62</t>
+          <t>V = 0.59</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>FPHR 4p</t>
+          <t>SPAHR, risk strata</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>median: 1 [IQR: 0 - 2]
-range: 0 - 3</t>
+          <t>low: 50% (23)
+int: 50% (23)
+high: 0% (0)</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>median: 3 [IQR: 2 - 3]
-range: 1 - 4</t>
+          <t>low: 1.9% (1)
+int: 78% (42)
+high: 20% (11)</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -5735,7 +5745,981 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>r = 0.6</t>
+          <t>V = 0.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>FPHR 3p, number of risk factors</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>0: 17% (8)
+1: 30% (14)
+2: 35% (16)
+3: 17% (8)</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>0: 0% (0)
+1: 7.4% (4)
+2: 26% (14)
+3: 67% (36)</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>p &lt; 0.001</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>V = 0.56</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>FPHR 4p, number of risk factors</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>0: 6.5% (3)
+1: 17% (8)
+2: 37% (17)
+3: 30% (14)
+4: 8.7% (4)</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>0: 0% (0)
+1: 3.7% (2)
+2: 17% (9)
+3: 31% (17)
+4: 48% (26)</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>p &lt; 0.001</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>V = 0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Reveal Lite, risk strata</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>low: 70% (32)
+int: 17% (8)
+high: 13% (6)</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>low: 5.6% (3)
+int: 11% (6)
+high: 83% (45)</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>p &lt; 0.001</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>V = 0.73</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Reveal 2.0, risk strata</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>low: 65% (30)
+int: 17% (8)
+high: 17% (8)</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>low: 3.7% (2)
+int: 11% (6)
+high: 85% (46)</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>p &lt; 0.001</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>V = 0.72</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Variable</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Cluster #1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Cluster #2</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Significance</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Effect size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Participants, n</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>3-year mortality</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>5.7% (2)</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>15% (7)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>ns (p = 0.38)</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>V = 0.14</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>5-year mortality</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>5.7% (2)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>19% (9)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>ns (p = 0.21)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>V = 0.19</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Overall mortality</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>14% (5)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>31% (15)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>ns (p = 0.17)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>V = 0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Age, years</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>63 [IQR: 46 - 70]
+range: 23 - 81</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>71 [IQR: 64 - 75]
+range: 26 - 82</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>p = 0.0043</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>r = 0.34</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>SMWD, m</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>440 [IQR: 350 - 510]
+range: 190 - 620</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>320 [IQR: 180 - 370]
+range: 50 - 580</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>p &lt; 0.001</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>r = 0.49</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>mPAP, mmHg</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>34 [IQR: 28 - 39]
+range: 18 - 57</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>44 [IQR: 35 - 50]
+range: 28 - 67</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>p &lt; 0.001</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>r = 0.48</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Sex</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>female: 80% (28)
+male: 20% (7)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>female: 56% (27)
+male: 44% (21)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>ns (p = 0.069)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>V = 0.25</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>PVR, Wood</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>3.7 [IQR: 3 - 5]
+range: 1.4 - 10</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>6.6 [IQR: 4.9 - 9]
+range: 2.3 - 20</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>p &lt; 0.001</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>r = 0.47</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>PCWP, mmHg</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>10 [IQR: 8 - 12]
+range: 1 - 27</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>12 [IQR: 8.5 - 14]
+range: 1 - 25</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>ns (p = 0.22)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>r = 0.15</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Anemia</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>5.7% (2)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>25% (12)</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>ns (p = 0.069)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>V = 0.25</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>log RDW, %</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2.7 [IQR: 2.6 - 2.8]
+range: 2.5 - 2.8</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2.8 [IQR: 2.7 - 2.8]
+range: 2.5 - 3.1</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>p = 0.0077</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>r = 0.32</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Renal insufficiency</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>11% (4)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>23% (11)</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>ns (p = 0.34)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>V = 0.15</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>log FT, ng/ml</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>4.2 [IQR: 3 - 4.8]
+range: 1.9 - 5.7</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>4.4 [IQR: 3.7 - 5]
+range: 2.5 - 7.1</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>ns (p = 0.1)</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>r = 0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>log TF-Sat, %</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>3.1 [IQR: 2.7 - 3.3]
+range: 1.6 - 4.1</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2.9 [IQR: 2.4 - 3.4]
+range: 0.69 - 4.5</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>ns (p = 0.38)</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>r = 0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>MCV, fl</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>89 [IQR: 84 - 93]
+range: 78 - 110</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>90 [IQR: 87 - 93]
+range: 76 - 100</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>ns (p = 0.49)</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>r = 0.077</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>log NT-pro-BNP, pg/ml</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>5.3 [IQR: 4.9 - 6.1]
+range: 3.2 - 7</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>7.3 [IQR: 6.7 - 7.9]
+range: 4.8 - 10</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>p &lt; 0.001</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>r = 0.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Percardial effusion</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>0% (0)</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>6.2% (3)</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>ns (p = 0.38)</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>V = 0.17</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>RAA, cm²</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>17 [IQR: 15 - 17]
+range: 13 - 20</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>22 [IQR: 19 - 25]
+range: 15 - 30</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>p &lt; 0.001</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>r = 0.69</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>CI, NA</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2.8 [IQR: 2.5 - 3.1]
+range: 1.8 - 3.8</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2.4 [IQR: 2.1 - 2.8]
+range: 1.4 - 3.6</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>p = 0.0086</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>r = 0.31</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>mRAP, mmHg</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>3 [IQR: 1 - 5]
+range: 0 - 16</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>8 [IQR: 5.8 - 9.2]
+range: 1 - 20</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>p &lt; 0.001</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>r = 0.55</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>WHO class</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>I/II: 83% (29)
+III/IV: 17% (6)</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>I/II: 31% (15)
+III/IV: 69% (33)</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>p &lt; 0.001</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>V = 0.51</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>SO2</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>≥95: 60% (21)
+&lt;95: 40% (14)</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>≥95: 40% (19)
+&lt;95: 60% (29)</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>ns (p = 0.15)</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>V = 0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>mRASP, risk strata</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>low: 86% (30)
+int: 14% (5)
+high: 0% (0)</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>low: 4.2% (2)
+int: 81% (39)
+high: 15% (7)</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>p &lt; 0.001</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>V = 0.83</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>COMPERA, risk strata</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>low: 83% (29)
+int: 17% (6)
+high: 0% (0)</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>low: 6.2% (3)
+int: 90% (43)
+high: 4.2% (2)</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>p &lt; 0.001</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>V = 0.78</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>SPAHR, risk strata</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>low: 80% (28)
+int: 20% (7)
+high: 0% (0)</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>low: 0% (0)
+int: 98% (47)
+high: 2.1% (1)</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>p &lt; 0.001</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>V = 0.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>FPHR 3p, number of risk factors</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>0: 31% (11)
+1: 37% (13)
+2: 23% (8)
+3: 8.6% (3)</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>0: 0% (0)
+1: 8.3% (4)
+2: 35% (17)
+3: 56% (27)</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>p &lt; 0.001</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>V = 0.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>FPHR 4p, number of risk factors</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>0: 31% (11)
+1: 40% (14)
+2: 23% (8)
+3: 5.7% (2)
+4: 0% (0)</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>0: 0% (0)
+1: 15% (7)
+2: 27% (13)
+3: 42% (20)
+4: 17% (8)</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>p &lt; 0.001</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>V = 0.66</t>
         </is>
       </c>
     </row>

--- a/paper/supplementary_tables.xlsx
+++ b/paper/supplementary_tables.xlsx
@@ -819,7 +819,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>RDW</t>
+          <t>red blood cell distribution width</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -927,7 +927,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MCV</t>
+          <t>Mean corpuscular volume</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -954,7 +954,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>NT-pro-BNP</t>
+          <t>N-terminal pro-brain natriuretic peptide</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1390,13 +1390,13 @@
       <c r="B3" t="inlineStr">
         <is>
           <t>10 [IQR: 6 - 13]
-range: 2 - 26</t>
+2 - 26</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
           <t>6 [IQR: 3 - 9]
-range: 0 - 20</t>
+0 - 20</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -1448,13 +1448,13 @@
       <c r="B5" t="inlineStr">
         <is>
           <t>6.6 [IQR: 5.1 - 7.7]
-range: 3.4 - 11</t>
+3.4 - 11</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
           <t>6.6 [IQR: 5.3 - 7.4]
-range: 3.2 - 10</t>
+3.2 - 10</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1477,13 +1477,13 @@
       <c r="B6" t="inlineStr">
         <is>
           <t>2.4 [IQR: 1.9 - 2.8]
-range: 1.6 - 4.2</t>
+1.6 - 4.2</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
           <t>2.6 [IQR: 2.2 - 3]
-range: 1.4 - 3.8</t>
+1.4 - 3.8</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1506,13 +1506,13 @@
       <c r="B7" t="inlineStr">
         <is>
           <t>22 [IQR: 17 - 24]
-range: 13 - 34</t>
+13 - 34</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
           <t>18 [IQR: 17 - 23]
-range: 13 - 30</t>
+13 - 30</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1535,13 +1535,13 @@
       <c r="B8" t="inlineStr">
         <is>
           <t>88 [IQR: 85 - 91]
-range: 58 - 100</t>
+58 - 100</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
           <t>89 [IQR: 86 - 93]
-range: 76 - 110</t>
+76 - 110</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1564,13 +1564,13 @@
       <c r="B9" t="inlineStr">
         <is>
           <t>2.7 [IQR: 2.6 - 2.8]
-range: 2.5 - 3.1</t>
+2.5 - 3.1</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
           <t>2.7 [IQR: 2.7 - 2.8]
-range: 2.5 - 3.1</t>
+2.5 - 3.1</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1593,13 +1593,13 @@
       <c r="B10" t="inlineStr">
         <is>
           <t>4.1 [IQR: 3.5 - 4.7]
-range: 1.1 - 6.5</t>
+1.1 - 6.5</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
           <t>4.4 [IQR: 3.4 - 4.9]
-range: 1.9 - 7.1</t>
+1.9 - 7.1</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1622,13 +1622,13 @@
       <c r="B11" t="inlineStr">
         <is>
           <t>3 [IQR: 2.6 - 3.3]
-range: 0.69 - 4.3</t>
+0.69 - 4.3</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
           <t>3 [IQR: 2.5 - 3.4]
-range: 0.69 - 4.5</t>
+0.69 - 4.5</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -4508,7 +4508,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4576,22 +4576,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>LASSO ensemble</t>
+          <t>Ridge ensemble</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.84 [0.78 - 0.9]</t>
+          <t>0.79 [0.71 - 0.86]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.081</t>
+          <t>0.095</t>
         </is>
       </c>
     </row>
@@ -4733,22 +4733,22 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>IBK</t>
+          <t>LZ/W</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Reveal Lite</t>
+          <t>ElasticNet</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.69 [0.61 - 0.77]</t>
+          <t>0.77 [0.66 - 0.88]</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -4760,22 +4760,22 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>IBK</t>
+          <t>LZ/W</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Reveal 2.0</t>
+          <t>Ridge ensemble</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.68 [0.61 - 0.76]</t>
+          <t>0.72 [0.6 - 0.84]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -4792,17 +4792,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ElasticNet</t>
+          <t>mRASP</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.77 [0.66 - 0.88]</t>
+          <t>0.67 [0.59 - 0.76]</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -4819,22 +4819,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>LASSO ensemble</t>
+          <t>COMPERA</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0.74 [0.64 - 0.85]</t>
+          <t>0.64 [0.54 - 0.74]</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.49</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.14</t>
         </is>
       </c>
     </row>
@@ -4846,22 +4846,22 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>mRASP</t>
+          <t>SPAHR</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0.67 [0.59 - 0.76]</t>
+          <t>0.66 [0.57 - 0.75]</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.13</t>
         </is>
       </c>
     </row>
@@ -4873,22 +4873,22 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>COMPERA</t>
+          <t>FPHR 3p</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0.64 [0.54 - 0.74]</t>
+          <t>0.69 [0.58 - 0.8]</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>0.13</t>
         </is>
       </c>
     </row>
@@ -4900,74 +4900,20 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>SPAHR</t>
+          <t>FPHR 4p</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0.66 [0.57 - 0.75]</t>
+          <t>0.75 [0.65 - 0.86]</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>LZ/W</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>FPHR 3p</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>0.69 [0.58 - 0.8]</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.38</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>LZ/W</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>FPHR 4p</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>0.75 [0.65 - 0.86]</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
         <is>
           <t>0.14</t>
         </is>
@@ -5120,13 +5066,13 @@
       <c r="B6" t="inlineStr">
         <is>
           <t>58 [IQR: 48 - 68]
-range: 19 - 80</t>
+19 - 80</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
           <t>69 [IQR: 65 - 74]
-range: 26 - 84</t>
+26 - 84</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -5149,13 +5095,13 @@
       <c r="B7" t="inlineStr">
         <is>
           <t>370 [IQR: 310 - 450]
-range: 120 - 580</t>
+120 - 580</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
           <t>240 [IQR: 160 - 330]
-range: 50 - 610</t>
+50 - 610</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -5178,13 +5124,13 @@
       <c r="B8" t="inlineStr">
         <is>
           <t>30 [IQR: 27 - 37]
-range: 26 - 87</t>
+26 - 87</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
           <t>47 [IQR: 40 - 55]
-range: 26 - 120</t>
+26 - 120</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -5236,13 +5182,13 @@
       <c r="B10" t="inlineStr">
         <is>
           <t>6.8 [IQR: 5.9 - 9.6]
-range: 3.3 - 38</t>
+3.3 - 38</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
           <t>14 [IQR: 11 - 22]
-range: 4.3 - 43</t>
+4.3 - 43</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -5265,13 +5211,13 @@
       <c r="B11" t="inlineStr">
         <is>
           <t>12 [IQR: 9 - 14]
-range: 6 - 23</t>
+6 - 23</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
           <t>14 [IQR: 11 - 19]
-range: 4 - 32</t>
+4 - 32</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -5321,13 +5267,13 @@
       <c r="B13" t="inlineStr">
         <is>
           <t>2.6 [IQR: 2.6 - 2.7]
-range: 2.5 - 2.9</t>
+2.5 - 2.9</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
           <t>2.7 [IQR: 2.6 - 2.8]
-range: 2.6 - 3.1</t>
+2.6 - 3.1</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -5377,13 +5323,13 @@
       <c r="B15" t="inlineStr">
         <is>
           <t>4 [IQR: 3.3 - 4.7]
-range: 1.1 - 6.5</t>
+1.1 - 6.5</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
           <t>4.2 [IQR: 3.8 - 4.9]
-range: 1.8 - 6.5</t>
+1.8 - 6.5</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -5406,13 +5352,13 @@
       <c r="B16" t="inlineStr">
         <is>
           <t>3 [IQR: 2.7 - 3.4]
-range: 1.8 - 4.3</t>
+1.8 - 4.3</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
           <t>2.8 [IQR: 2.4 - 3.2]
-range: 0.69 - 4</t>
+0.69 - 4</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -5435,13 +5381,13 @@
       <c r="B17" t="inlineStr">
         <is>
           <t>88 [IQR: 85 - 90]
-range: 76 - 96</t>
+76 - 96</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
           <t>88 [IQR: 86 - 92]
-range: 58 - 100</t>
+58 - 100</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -5464,13 +5410,13 @@
       <c r="B18" t="inlineStr">
         <is>
           <t>5.1 [IQR: 4.4 - 5.8]
-range: 3.4 - 7.5</t>
+3.4 - 7.5</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
           <t>7.6 [IQR: 6.9 - 8.1]
-range: 4.9 - 11</t>
+4.9 - 11</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -5520,13 +5466,13 @@
       <c r="B20" t="inlineStr">
         <is>
           <t>17 [IQR: 16 - 21]
-range: 13 - 27</t>
+13 - 27</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
           <t>24 [IQR: 23 - 27]
-range: 15 - 34</t>
+15 - 34</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -5549,13 +5495,13 @@
       <c r="B21" t="inlineStr">
         <is>
           <t>2.7 [IQR: 2.4 - 3]
-range: 1.8 - 4.2</t>
+1.8 - 4.2</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
           <t>2 [IQR: 1.9 - 2.3]
-range: 1.6 - 3.5</t>
+1.6 - 3.5</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -5578,13 +5524,13 @@
       <c r="B22" t="inlineStr">
         <is>
           <t>8 [IQR: 6 - 12]
-range: 2 - 18</t>
+2 - 18</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
           <t>11 [IQR: 8 - 14]
-range: 2 - 26</t>
+2 - 26</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -6026,13 +5972,13 @@
       <c r="B6" t="inlineStr">
         <is>
           <t>63 [IQR: 46 - 70]
-range: 23 - 81</t>
+23 - 81</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
           <t>71 [IQR: 64 - 75]
-range: 26 - 82</t>
+26 - 82</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -6055,13 +6001,13 @@
       <c r="B7" t="inlineStr">
         <is>
           <t>440 [IQR: 350 - 510]
-range: 190 - 620</t>
+190 - 620</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
           <t>320 [IQR: 180 - 370]
-range: 50 - 580</t>
+50 - 580</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -6084,13 +6030,13 @@
       <c r="B8" t="inlineStr">
         <is>
           <t>34 [IQR: 28 - 39]
-range: 18 - 57</t>
+18 - 57</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
           <t>44 [IQR: 35 - 50]
-range: 28 - 67</t>
+28 - 67</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -6142,13 +6088,13 @@
       <c r="B10" t="inlineStr">
         <is>
           <t>3.7 [IQR: 3 - 5]
-range: 1.4 - 10</t>
+1.4 - 10</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
           <t>6.6 [IQR: 4.9 - 9]
-range: 2.3 - 20</t>
+2.3 - 20</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -6171,13 +6117,13 @@
       <c r="B11" t="inlineStr">
         <is>
           <t>10 [IQR: 8 - 12]
-range: 1 - 27</t>
+1 - 27</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
           <t>12 [IQR: 8.5 - 14]
-range: 1 - 25</t>
+1 - 25</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -6227,13 +6173,13 @@
       <c r="B13" t="inlineStr">
         <is>
           <t>2.7 [IQR: 2.6 - 2.8]
-range: 2.5 - 2.8</t>
+2.5 - 2.8</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
           <t>2.8 [IQR: 2.7 - 2.8]
-range: 2.5 - 3.1</t>
+2.5 - 3.1</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -6283,13 +6229,13 @@
       <c r="B15" t="inlineStr">
         <is>
           <t>4.2 [IQR: 3 - 4.8]
-range: 1.9 - 5.7</t>
+1.9 - 5.7</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
           <t>4.4 [IQR: 3.7 - 5]
-range: 2.5 - 7.1</t>
+2.5 - 7.1</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -6312,13 +6258,13 @@
       <c r="B16" t="inlineStr">
         <is>
           <t>3.1 [IQR: 2.7 - 3.3]
-range: 1.6 - 4.1</t>
+1.6 - 4.1</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
           <t>2.9 [IQR: 2.4 - 3.4]
-range: 0.69 - 4.5</t>
+0.69 - 4.5</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -6341,13 +6287,13 @@
       <c r="B17" t="inlineStr">
         <is>
           <t>89 [IQR: 84 - 93]
-range: 78 - 110</t>
+78 - 110</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
           <t>90 [IQR: 87 - 93]
-range: 76 - 100</t>
+76 - 100</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -6370,13 +6316,13 @@
       <c r="B18" t="inlineStr">
         <is>
           <t>5.3 [IQR: 4.9 - 6.1]
-range: 3.2 - 7</t>
+3.2 - 7</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
           <t>7.3 [IQR: 6.7 - 7.9]
-range: 4.8 - 10</t>
+4.8 - 10</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -6426,13 +6372,13 @@
       <c r="B20" t="inlineStr">
         <is>
           <t>17 [IQR: 15 - 17]
-range: 13 - 20</t>
+13 - 20</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
           <t>22 [IQR: 19 - 25]
-range: 15 - 30</t>
+15 - 30</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -6455,13 +6401,13 @@
       <c r="B21" t="inlineStr">
         <is>
           <t>2.8 [IQR: 2.5 - 3.1]
-range: 1.8 - 3.8</t>
+1.8 - 3.8</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
           <t>2.4 [IQR: 2.1 - 2.8]
-range: 1.4 - 3.6</t>
+1.4 - 3.6</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -6484,13 +6430,13 @@
       <c r="B22" t="inlineStr">
         <is>
           <t>3 [IQR: 1 - 5]
-range: 0 - 16</t>
+0 - 16</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
           <t>8 [IQR: 5.8 - 9.2]
-range: 1 - 20</t>
+1 - 20</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
